--- a/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DEE4AB-6D20-4AB8-8C6C-4292A0D70DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB97FB2E-398A-4D5D-A04C-3B065BA91E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55ED1A27-F4BD-4693-9FC0-A7037D2C0BE0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EC5E25D-A26A-4FCF-9132-E5E270B3F2B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>90,6%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>12,77%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>16,88%</t>
@@ -158,31 +158,31 @@
     <t>14,84%</t>
   </si>
   <si>
-    <t>18,9%</t>
+    <t>19,07%</t>
   </si>
   <si>
     <t>87,23%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>79,47%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>81,1%</t>
+    <t>80,93%</t>
   </si>
   <si>
     <t>85,16%</t>
@@ -194,49 +194,55 @@
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,18%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>80,82%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -245,55 +251,55 @@
     <t>11,98%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>84,9%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,16 +308,16 @@
     <t>17,17%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>21,39%</t>
+    <t>21,35%</t>
   </si>
   <si>
     <t>26,36%</t>
@@ -320,19 +326,19 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>76,21%</t>
@@ -341,64 +347,70 @@
     <t>73,64%</t>
   </si>
   <si>
-    <t>78,61%</t>
+    <t>78,65%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>21,72%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>78,28%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B750FB-7DCE-426E-838B-6E0D399D36DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA023AF-BDCD-4A9D-B873-A80F49B36BCE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1268,7 +1280,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>470</v>
@@ -1277,13 +1289,13 @@
         <v>339151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,13 +1310,13 @@
         <v>924978</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1173</v>
@@ -1313,13 +1325,13 @@
         <v>835199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>2011</v>
@@ -1328,13 +1340,13 @@
         <v>1760176</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,7 +1402,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1402,13 +1414,13 @@
         <v>87301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -1417,13 +1429,13 @@
         <v>132048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -1432,13 +1444,13 @@
         <v>219348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,13 +1465,13 @@
         <v>641471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -1468,13 +1480,13 @@
         <v>742323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1455</v>
@@ -1483,13 +1495,13 @@
         <v>1383794</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1545,7 +1557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,13 +1569,13 @@
         <v>165801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -1572,13 +1584,13 @@
         <v>273742</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>585</v>
@@ -1587,13 +1599,13 @@
         <v>439543</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1620,13 @@
         <v>799602</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1168</v>
@@ -1623,13 +1635,13 @@
         <v>876690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1983</v>
@@ -1638,13 +1650,13 @@
         <v>1676292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1724,13 @@
         <v>447158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1177</v>
@@ -1727,13 +1739,13 @@
         <v>777883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1672</v>
@@ -1742,13 +1754,13 @@
         <v>1225041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1775,13 @@
         <v>2938070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4190</v>
@@ -1778,28 +1790,28 @@
         <v>3057698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>7071</v>
       </c>
       <c r="N20" s="7">
-        <v>5995768</v>
+        <v>5995767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,7 +1853,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1855,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB97FB2E-398A-4D5D-A04C-3B065BA91E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B4A188-6B28-4B0D-8E54-95BD1727880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EC5E25D-A26A-4FCF-9132-E5E270B3F2B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F53B6E5-DEEC-4327-902A-A755E023B715}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>12,77%</t>
@@ -188,7 +188,7 @@
     <t>85,16%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>11,0%</t>
@@ -245,7 +245,7 @@
     <t>85,49%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>11,98%</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA023AF-BDCD-4A9D-B873-A80F49B36BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888119F6-3CBB-4EE6-9987-D594E443540A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0B4A188-6B28-4B0D-8E54-95BD1727880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{409B0D3D-45DC-4C6A-99F8-6CC2D52ABB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F53B6E5-DEEC-4327-902A-A755E023B715}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCD72FC4-7750-4CE2-97A2-E9688EB371F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,34 +68,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>15,26%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>90,6%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>84,74%</t>
   </si>
   <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,169 +137,163 @@
     <t>12,77%</t>
   </si>
   <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
     <t>86,32%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,16 +302,16 @@
     <t>17,17%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>23,79%</t>
   </si>
   <si>
-    <t>21,35%</t>
+    <t>21,39%</t>
   </si>
   <si>
     <t>26,36%</t>
@@ -326,19 +320,19 @@
     <t>20,77%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
   </si>
   <si>
     <t>76,21%</t>
@@ -347,70 +341,64 @@
     <t>73,64%</t>
   </si>
   <si>
-    <t>78,65%</t>
+    <t>78,61%</t>
   </si>
   <si>
     <t>79,23%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>78,28%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888119F6-3CBB-4EE6-9987-D594E443540A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6080E8F8-D1AC-48CD-B856-860727DABD05}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1280,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>470</v>
@@ -1289,13 +1277,13 @@
         <v>339151</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,13 +1298,13 @@
         <v>924978</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1173</v>
@@ -1325,13 +1313,13 @@
         <v>835199</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>2011</v>
@@ -1340,13 +1328,13 @@
         <v>1760176</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,7 +1390,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1414,13 +1402,13 @@
         <v>87301</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -1429,13 +1417,13 @@
         <v>132048</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>268</v>
@@ -1444,13 +1432,13 @@
         <v>219348</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1453,13 @@
         <v>641471</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -1480,13 +1468,13 @@
         <v>742323</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1455</v>
@@ -1495,13 +1483,13 @@
         <v>1383794</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1557,13 @@
         <v>165801</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -1584,13 +1572,13 @@
         <v>273742</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>585</v>
@@ -1599,13 +1587,13 @@
         <v>439543</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1608,13 @@
         <v>799602</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1168</v>
@@ -1635,13 +1623,13 @@
         <v>876690</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1983</v>
@@ -1650,13 +1638,13 @@
         <v>1676292</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1712,13 @@
         <v>447158</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>1177</v>
@@ -1739,13 +1727,13 @@
         <v>777883</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>1672</v>
@@ -1754,13 +1742,13 @@
         <v>1225041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1763,13 @@
         <v>2938070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>4190</v>
@@ -1790,28 +1778,28 @@
         <v>3057698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>7071</v>
       </c>
       <c r="N20" s="7">
-        <v>5995767</v>
+        <v>5995768</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,7 +1841,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1867,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409B0D3D-45DC-4C6A-99F8-6CC2D52ABB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3B4EF6-A7E1-40DD-965F-889D3F9131DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCD72FC4-7750-4CE2-97A2-E9688EB371F5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8F422C92-6BF4-4F01-A3B8-B5B42C87DEDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,340 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>90,6%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>86,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>83,12%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,8 +756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6080E8F8-D1AC-48CD-B856-860727DABD05}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C058432E-175A-4C26-B539-977B8DEDBF63}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -931,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D4" s="7">
-        <v>9587</v>
+        <v>73850</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -946,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="I4" s="7">
-        <v>19948</v>
+        <v>134990</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -961,10 +904,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="N4" s="7">
-        <v>29534</v>
+        <v>208840</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -982,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>641</v>
       </c>
       <c r="D5" s="7">
-        <v>92395</v>
+        <v>561591</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -997,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>206</v>
+        <v>981</v>
       </c>
       <c r="I5" s="7">
-        <v>110785</v>
+        <v>590340</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1012,10 +955,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>312</v>
+        <v>1622</v>
       </c>
       <c r="N5" s="7">
-        <v>203181</v>
+        <v>1151932</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1033,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1048,10 +991,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1063,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1086,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D7" s="7">
-        <v>70199</v>
+        <v>105723</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1101,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="I7" s="7">
-        <v>127266</v>
+        <v>200836</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1116,10 +1059,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="N7" s="7">
-        <v>197465</v>
+        <v>306559</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1137,10 +1080,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>838</v>
       </c>
       <c r="D8" s="7">
-        <v>479624</v>
+        <v>1087141</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1152,10 +1095,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>775</v>
+        <v>1173</v>
       </c>
       <c r="I8" s="7">
-        <v>492701</v>
+        <v>757815</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1167,10 +1110,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1310</v>
+        <v>2011</v>
       </c>
       <c r="N8" s="7">
-        <v>972325</v>
+        <v>1844957</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1188,10 +1131,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1203,10 +1146,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1218,10 +1161,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1241,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7">
-        <v>114270</v>
+        <v>81023</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1256,10 +1199,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>344</v>
+        <v>179</v>
       </c>
       <c r="I10" s="7">
-        <v>224880</v>
+        <v>117834</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1268,22 +1211,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>470</v>
+        <v>268</v>
       </c>
       <c r="N10" s="7">
-        <v>339151</v>
+        <v>198857</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>838</v>
+        <v>587</v>
       </c>
       <c r="D11" s="7">
-        <v>924978</v>
+        <v>623657</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1173</v>
+        <v>868</v>
       </c>
       <c r="I11" s="7">
-        <v>835199</v>
+        <v>815532</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2011</v>
+        <v>1455</v>
       </c>
       <c r="N11" s="7">
-        <v>1760176</v>
+        <v>1439189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,10 +1286,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1358,10 +1301,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1373,10 +1316,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1390,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="D13" s="7">
-        <v>87301</v>
+        <v>155119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>179</v>
+        <v>394</v>
       </c>
       <c r="I13" s="7">
-        <v>132048</v>
+        <v>243634</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>268</v>
+        <v>585</v>
       </c>
       <c r="N13" s="7">
-        <v>219348</v>
+        <v>398752</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>587</v>
+        <v>815</v>
       </c>
       <c r="D14" s="7">
-        <v>641471</v>
+        <v>771712</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>868</v>
+        <v>1168</v>
       </c>
       <c r="I14" s="7">
-        <v>742323</v>
+        <v>851298</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1455</v>
+        <v>1983</v>
       </c>
       <c r="N14" s="7">
-        <v>1383794</v>
+        <v>1623011</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1513,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1528,10 +1471,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1545,55 +1488,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>191</v>
+        <v>495</v>
       </c>
       <c r="D16" s="7">
-        <v>165801</v>
+        <v>415715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>394</v>
+        <v>1177</v>
       </c>
       <c r="I16" s="7">
-        <v>273742</v>
+        <v>697294</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1113009</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16" s="7">
-        <v>585</v>
-      </c>
-      <c r="N16" s="7">
-        <v>439543</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1545,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>815</v>
+        <v>2881</v>
       </c>
       <c r="D17" s="7">
-        <v>799602</v>
+        <v>3044102</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4190</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3014986</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>1168</v>
-      </c>
-      <c r="I17" s="7">
-        <v>876690</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7071</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6059088</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>1983</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1676292</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,10 +1596,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1668,10 +1611,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1683,10 +1626,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1699,171 +1642,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>495</v>
-      </c>
-      <c r="D19" s="7">
-        <v>447158</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1177</v>
-      </c>
-      <c r="I19" s="7">
-        <v>777883</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1672</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1225041</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2881</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2938070</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4190</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3057698</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7071</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5995768</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
